--- a/data/universal/inflation_rates.xlsx
+++ b/data/universal/inflation_rates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/pc16_ic_ac_uk/Documents/18_Consultancies/LSE/Malaria Investment ROI/Paula 2/files for R Absolute All AL disp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulachristen/Documents/mmv_ror/data/universal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{98FBE9C2-FAF7-4C6F-8894-CD7211E1AA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C04D5962-2780-5C42-B5EA-52072CF6F0F0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDFF9CE-E013-2F43-9D6E-9D7F080E40A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="760" windowWidth="27640" windowHeight="15040" xr2:uid="{A55B7CA0-6087-4308-B9EB-6855AEA54073}"/>
+    <workbookView xWindow="13860" yWindow="760" windowWidth="20400" windowHeight="19720" xr2:uid="{A55B7CA0-6087-4308-B9EB-6855AEA54073}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -413,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F290AF-C572-4704-8217-E7747A887F60}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -434,7 +434,7 @@
         <v>1990</v>
       </c>
       <c r="B2">
-        <v>2.184174283660588</v>
+        <v>2.3607549072331282</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -442,7 +442,7 @@
         <v>1991</v>
       </c>
       <c r="B3">
-        <v>2.0722716163762684</v>
+        <v>2.2398488424006633</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -450,7 +450,7 @@
         <v>1992</v>
       </c>
       <c r="B4">
-        <v>1.9887443535280882</v>
+        <v>2.1488459891084886</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -458,7 +458,7 @@
         <v>1993</v>
       </c>
       <c r="B5">
-        <v>1.9308197607068827</v>
+        <v>2.0856746644494604</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -466,7 +466,7 @@
         <v>1994</v>
       </c>
       <c r="B6">
-        <v>1.8745822919484298</v>
+        <v>2.0258777040669171</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -474,7 +474,7 @@
         <v>1995</v>
       </c>
       <c r="B7">
-        <v>1.8270782572596778</v>
+        <v>1.9743964693315359</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -482,7 +482,7 @@
         <v>1996</v>
       </c>
       <c r="B8">
-        <v>1.7773134798245893</v>
+        <v>1.9205178825330849</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -490,7 +490,7 @@
         <v>1997</v>
       </c>
       <c r="B9">
-        <v>1.7255470677908633</v>
+        <v>1.8658266921687388</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -498,7 +498,7 @@
         <v>1998</v>
       </c>
       <c r="B10">
-        <v>1.6867517769216651</v>
+        <v>1.8232057937908852</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -506,7 +506,7 @@
         <v>1999</v>
       </c>
       <c r="B11">
-        <v>1.6601887568126628</v>
+        <v>1.7953371504524314</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -514,7 +514,7 @@
         <v>2000</v>
       </c>
       <c r="B12">
-        <v>1.6244508383685548</v>
+        <v>1.7568957926859783</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -522,7 +522,7 @@
         <v>2001</v>
       </c>
       <c r="B13">
-        <v>1.5710356270488921</v>
+        <v>1.6995059039876124</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -530,7 +530,7 @@
         <v>2002</v>
       </c>
       <c r="B14">
-        <v>1.5282447733938642</v>
+        <v>1.6527950865963865</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -538,7 +538,7 @@
         <v>2003</v>
       </c>
       <c r="B15">
-        <v>1.5041779265687634</v>
+        <v>1.6269905026638876</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -546,7 +546,7 @@
         <v>2004</v>
       </c>
       <c r="B16">
-        <v>1.4703596545149207</v>
+        <v>1.590876104190261</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -554,7 +554,7 @@
         <v>2005</v>
       </c>
       <c r="B17">
-        <v>1.4317036558081018</v>
+        <v>1.5493951292685091</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -562,7 +562,7 @@
         <v>2006</v>
       </c>
       <c r="B18">
-        <v>1.3846263595823034</v>
+        <v>1.4985530189886924</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -570,7 +570,7 @@
         <v>2007</v>
       </c>
       <c r="B19">
-        <v>1.3416922088975807</v>
+        <v>1.451721301310406</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -578,7 +578,7 @@
         <v>2008</v>
       </c>
       <c r="B20">
-        <v>1.3051480631299424</v>
+        <v>1.4114570543332312</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -586,7 +586,7 @@
         <v>2009</v>
       </c>
       <c r="B21">
-        <v>1.2573680762330848</v>
+        <v>1.3592731931429813</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -594,7 +594,7 @@
         <v>2010</v>
       </c>
       <c r="B22">
-        <v>1.2624177472219731</v>
+        <v>1.3641232825417839</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -602,7 +602,7 @@
         <v>2011</v>
       </c>
       <c r="B23">
-        <v>1.2425371527775326</v>
+        <v>1.3421120616846016</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -610,7 +610,7 @@
         <v>2012</v>
       </c>
       <c r="B24">
-        <v>1.2040088689704775</v>
+        <v>1.3010402812612307</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -618,7 +618,7 @@
         <v>2013</v>
       </c>
       <c r="B25">
-        <v>1.1792447296478719</v>
+        <v>1.2746632006437457</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -626,7 +626,7 @@
         <v>2014</v>
       </c>
       <c r="B26">
-        <v>1.1618174676333715</v>
+        <v>1.2562610781313435</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -634,7 +634,7 @@
         <v>2015</v>
       </c>
       <c r="B27">
-        <v>1.1435211295604049</v>
+        <v>1.2362070434245716</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -642,7 +642,7 @@
         <v>2016</v>
       </c>
       <c r="B28">
-        <v>1.1423787508095955</v>
+        <v>1.2347423039978849</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -650,7 +650,7 @@
         <v>2017</v>
       </c>
       <c r="B29">
-        <v>1.127718411460608</v>
+        <v>1.2193590746942977</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -658,7 +658,7 @@
         <v>2018</v>
       </c>
       <c r="B30">
-        <v>1.104523419648</v>
+        <v>1.1939271138066967</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -666,7 +666,7 @@
         <v>2019</v>
       </c>
       <c r="B31">
-        <v>1.0786361519999998</v>
+        <v>1.1654597876999238</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -674,7 +674,7 @@
         <v>2020</v>
       </c>
       <c r="B32">
-        <v>1.059564</v>
+        <v>1.1447151445179404</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -682,7 +682,7 @@
         <v>2021</v>
       </c>
       <c r="B33">
-        <v>1.0469999999999999</v>
+        <v>1.1307661892486616</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -690,6 +690,14 @@
         <v>2022</v>
       </c>
       <c r="B34">
+        <v>1.0800279982052121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2023</v>
+      </c>
+      <c r="B35">
         <v>1</v>
       </c>
     </row>
